--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dewi\Documents\Mprog\Heuristieken\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perni\Documents\Heurstieken\Heuristieken\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA333B0-6686-4744-8C85-E8272E0C8A4F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D24E82-F96B-4CB0-A4C0-21BD3F2E96BB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" xr2:uid="{A8484576-1CA8-40D9-BCA4-878BD6BEF6B5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" xr2:uid="{A8484576-1CA8-40D9-BCA4-878BD6BEF6B5}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
   <si>
     <t>random begin</t>
   </si>
@@ -39,12 +39,6 @@
     <t>kerkhof begin</t>
   </si>
   <si>
-    <t>Simulated Annealing</t>
-  </si>
-  <si>
-    <t>Kerkhof</t>
-  </si>
-  <si>
     <t>16 922 925</t>
   </si>
   <si>
@@ -87,27 +81,12 @@
     <t>266.53</t>
   </si>
   <si>
-    <t>tijd (s)</t>
-  </si>
-  <si>
     <t>16 924 195</t>
   </si>
   <si>
-    <t>waarde</t>
-  </si>
-  <si>
     <t>27 571 800</t>
   </si>
   <si>
-    <t>begin waarde</t>
-  </si>
-  <si>
-    <t>eind waarde</t>
-  </si>
-  <si>
-    <t>Hill Climber</t>
-  </si>
-  <si>
     <t>13 273 725</t>
   </si>
   <si>
@@ -171,9 +150,6 @@
     <t>1276.50</t>
   </si>
   <si>
-    <t>Random 1 iteratie</t>
-  </si>
-  <si>
     <t>11 297 985</t>
   </si>
   <si>
@@ -232,6 +208,30 @@
   </si>
   <si>
     <t>672.68</t>
+  </si>
+  <si>
+    <t>kerkhof</t>
+  </si>
+  <si>
+    <t>hill climber</t>
+  </si>
+  <si>
+    <t>simulated annealing</t>
+  </si>
+  <si>
+    <t>tijd (sec)</t>
+  </si>
+  <si>
+    <t>random 1 iteratie</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>begin score</t>
+  </si>
+  <si>
+    <t>eind score</t>
   </si>
 </sst>
 </file>
@@ -303,7 +303,7 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -319,7 +319,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -618,52 +618,52 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7265625" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="6" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="7" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>20</v>
       </c>
@@ -674,13 +674,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -692,42 +692,42 @@
         <v>1</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
       </c>
       <c r="J3" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>20</v>
       </c>
@@ -735,13 +735,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -750,16 +750,16 @@
         <v>3</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>40</v>
       </c>
@@ -770,13 +770,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>40</v>
@@ -788,42 +788,42 @@
         <v>1</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
         <v>2</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>40</v>
       </c>
@@ -831,13 +831,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>40</v>
@@ -846,16 +846,16 @@
         <v>3</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="M8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>60</v>
       </c>
@@ -866,13 +866,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>60</v>
@@ -884,42 +884,42 @@
         <v>1</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
         <v>9</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
       </c>
       <c r="J11" t="s">
         <v>2</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="M11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>60</v>
       </c>
@@ -927,13 +927,13 @@
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>60</v>
@@ -942,30 +942,32 @@
         <v>3</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M12" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
       <c r="H15" s="4" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>20</v>
       </c>
@@ -973,38 +975,38 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H16">
         <v>20</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H17">
         <v>40</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H18">
         <v>60</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>40</v>
       </c>
@@ -1012,18 +1014,18 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>60</v>
       </c>
@@ -1031,15 +1033,15 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
